--- a/data/uac_assets.xlsx
+++ b/data/uac_assets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donert/Documents/UACTech/SystemDocumentation/github/uactechdoc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6D25D8-1A94-7048-8470-A2A489409E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C80B75-0F19-5D49-8E50-049B65B9D0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{3C9C81FE-6D42-AC48-AEA8-E5DCE0F60BC8}"/>
   </bookViews>
@@ -4945,7 +4945,6 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Network"/>
       <sheetName val="New Wireless2017"/>
       <sheetName val="mixer costs"/>
       <sheetName val="wireshark filters"/>
@@ -4966,31 +4965,30 @@
       <sheetName val="PeopleSkill"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
         <row r="2">
           <cell r="I2">
             <v>0.13742299999999999</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5296,10 +5294,10 @@
   <dimension ref="A1:Z627"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="240" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B364" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B622" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A374" sqref="A374"/>
+      <selection pane="bottomRight" activeCell="A376" sqref="A376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/uac_assets.xlsx
+++ b/data/uac_assets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donert/Documents/UACTech/SystemDocumentation/github/uactechdoc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429A8A89-2759-994E-8633-8C55A88FD204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2354C410-8489-8245-8F75-0AB424C174A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-62740" yWindow="-27400" windowWidth="58540" windowHeight="32120" xr2:uid="{3C9C81FE-6D42-AC48-AEA8-E5DCE0F60BC8}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{3C9C81FE-6D42-AC48-AEA8-E5DCE0F60BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6914" uniqueCount="1571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6946" uniqueCount="1583">
   <si>
     <t>N</t>
   </si>
@@ -4756,6 +4756,42 @@
   </si>
   <si>
     <t>waste</t>
+  </si>
+  <si>
+    <t>2309-2503</t>
+  </si>
+  <si>
+    <t>Rodam</t>
+  </si>
+  <si>
+    <t>TD 100</t>
+  </si>
+  <si>
+    <t>Acoustic Guitar</t>
+  </si>
+  <si>
+    <t>2309-2504</t>
+  </si>
+  <si>
+    <t>Electronic waste</t>
+  </si>
+  <si>
+    <t>youth_snake</t>
+  </si>
+  <si>
+    <t>x+3</t>
+  </si>
+  <si>
+    <t>maybe a 16+3 100 foot snake</t>
+  </si>
+  <si>
+    <t>very old</t>
+  </si>
+  <si>
+    <t>C01205 0710 11661</t>
+  </si>
+  <si>
+    <t>AVShop # 263880 2021/09/12</t>
   </si>
 </sst>
 </file>
@@ -4882,7 +4918,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4901,12 +4937,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4986,12 +5033,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -5009,18 +5072,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5092,31 +5143,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1612E1B7-5F42-9C4C-96C5-CEC50C8ECF5B}" name="Table1" displayName="Table1" ref="A1:Z1048576" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1612E1B7-5F42-9C4C-96C5-CEC50C8ECF5B}" name="Table1" displayName="Table1" ref="A1:Z1048576" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:Z1048576" xr:uid="{1612E1B7-5F42-9C4C-96C5-CEC50C8ECF5B}">
-    <filterColumn colId="0">
+    <filterColumn colId="5">
       <filters>
-        <filter val="2308-0900"/>
-        <filter val="2308-0901"/>
-        <filter val="2308-0902"/>
-        <filter val="2308-0903"/>
-        <filter val="2308-0904"/>
-        <filter val="2308-0905"/>
-        <filter val="2308-0906"/>
-        <filter val="2308-0907"/>
-        <filter val="2308-0908"/>
-        <filter val="2308-0909"/>
-        <filter val="2308-0910"/>
-        <filter val="2308-0911"/>
-        <filter val="2308-0912"/>
-        <filter val="2308-0913"/>
-        <filter val="2308-0914"/>
-        <filter val="2308-0919"/>
+        <filter val="BMD"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{E136A0C7-259F-5D47-8CC7-97E8B8DF9F26}" name="AssetTag" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{E136A0C7-259F-5D47-8CC7-97E8B8DF9F26}" name="AssetTag" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{6BA082BE-F887-C841-9FC6-A5966A71E1F6}" name="Category"/>
     <tableColumn id="3" xr3:uid="{606545FD-A35D-E14E-B5F6-886EF8D226AC}" name="Qty"/>
     <tableColumn id="4" xr3:uid="{6D55E2DB-B5B0-3845-BEAC-81039302EC1A}" name="UnitValue"/>
@@ -5129,7 +5165,7 @@
     <tableColumn id="11" xr3:uid="{E244A043-6719-614B-A432-4E8D31798240}" name="Location"/>
     <tableColumn id="12" xr3:uid="{488C138D-EF02-A248-82BD-E84310252804}" name="Type"/>
     <tableColumn id="13" xr3:uid="{73521C3B-3D75-BE49-9A63-9120A14E66E5}" name="Desc"/>
-    <tableColumn id="14" xr3:uid="{8F05A136-9CD0-454C-A7E5-73B9D75640FD}" name="SN" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{8F05A136-9CD0-454C-A7E5-73B9D75640FD}" name="SN" dataDxfId="2"/>
     <tableColumn id="15" xr3:uid="{A60FF2B3-23DF-104A-A74D-8F3DCC70F585}" name="InService"/>
     <tableColumn id="16" xr3:uid="{435C65AC-2873-2D40-99D7-209868506C08}" name="PurcDate"/>
     <tableColumn id="17" xr3:uid="{4E607CF9-F51C-4345-ADA0-79E2D527FBF8}" name="PurcFrom"/>
@@ -5137,8 +5173,8 @@
     <tableColumn id="19" xr3:uid="{96C954ED-5F0B-234A-83FF-7B75AC4667F2}" name="Comments"/>
     <tableColumn id="20" xr3:uid="{DFC57845-4E07-3448-A726-595EA20FD0CF}" name="AcqYear"/>
     <tableColumn id="21" xr3:uid="{F83CB080-1CF4-FD41-9662-A3E96571C88B}" name="EolYear"/>
-    <tableColumn id="22" xr3:uid="{BAF751E0-04B1-5944-AAF6-6704F32FFE18}" name="Disposition" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{1F3190AF-459C-5D48-8BAD-37BA28F6F062}" name="DisposedYear" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{BAF751E0-04B1-5944-AAF6-6704F32FFE18}" name="Disposition" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{1F3190AF-459C-5D48-8BAD-37BA28F6F062}" name="DisposedYear" dataDxfId="0"/>
     <tableColumn id="24" xr3:uid="{56788578-065C-6D4A-B5BA-08BEA94ABAFC}" name="DisposedValue"/>
     <tableColumn id="25" xr3:uid="{F175F342-EFFC-9D4C-8AB0-8C87310054CC}" name="DisposedComment"/>
     <tableColumn id="26" xr3:uid="{BA52AA02-2F9A-4E42-AE5A-BC1E6E7B29EA}" name="DispositionDestination"/>
@@ -5444,13 +5480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF16F6FB-C032-6D4B-B85E-47E7F7D95CFE}">
-  <dimension ref="A1:Z633"/>
+  <dimension ref="A1:Z636"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="240" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B159" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K449" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E602" sqref="E602"/>
+      <selection pane="bottomRight" activeCell="S582" sqref="N582:S582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" zeroHeight="1"/>
@@ -11265,7 +11301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:25" hidden="1">
+    <row r="145" spans="1:26" hidden="1">
       <c r="A145"/>
       <c r="B145" t="s">
         <v>10</v>
@@ -11329,7 +11365,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="146" spans="1:25" hidden="1">
+    <row r="146" spans="1:26" hidden="1">
       <c r="A146"/>
       <c r="B146" t="s">
         <v>10</v>
@@ -11393,7 +11429,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="147" spans="1:25" hidden="1">
+    <row r="147" spans="1:26" hidden="1">
       <c r="A147"/>
       <c r="B147" t="s">
         <v>10</v>
@@ -11457,7 +11493,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="148" spans="1:25" hidden="1">
+    <row r="148" spans="1:26" hidden="1">
       <c r="A148"/>
       <c r="B148" t="s">
         <v>10</v>
@@ -11521,7 +11557,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="149" spans="1:25" hidden="1">
+    <row r="149" spans="1:26" hidden="1">
       <c r="A149"/>
       <c r="B149" t="s">
         <v>10</v>
@@ -11582,7 +11618,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="150" spans="1:25" hidden="1">
+    <row r="150" spans="1:26" hidden="1">
       <c r="A150"/>
       <c r="B150" t="s">
         <v>10</v>
@@ -11610,7 +11646,7 @@
       </c>
       <c r="W150"/>
     </row>
-    <row r="151" spans="1:25" hidden="1">
+    <row r="151" spans="1:26" hidden="1">
       <c r="A151"/>
       <c r="B151" t="s">
         <v>10</v>
@@ -11641,7 +11677,7 @@
       </c>
       <c r="W151"/>
     </row>
-    <row r="152" spans="1:25" hidden="1">
+    <row r="152" spans="1:26" hidden="1">
       <c r="A152"/>
       <c r="B152" t="s">
         <v>10</v>
@@ -11687,7 +11723,7 @@
       </c>
       <c r="W152"/>
     </row>
-    <row r="153" spans="1:25" hidden="1">
+    <row r="153" spans="1:26" hidden="1">
       <c r="A153"/>
       <c r="B153" t="s">
         <v>10</v>
@@ -11732,7 +11768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:25" hidden="1">
+    <row r="154" spans="1:26" hidden="1">
       <c r="A154"/>
       <c r="B154" t="s">
         <v>10</v>
@@ -11769,7 +11805,7 @@
       </c>
       <c r="W154"/>
     </row>
-    <row r="155" spans="1:25" hidden="1">
+    <row r="155" spans="1:26" hidden="1">
       <c r="A155"/>
       <c r="B155" t="s">
         <v>10</v>
@@ -11814,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:25" hidden="1">
+    <row r="156" spans="1:26" hidden="1">
       <c r="A156"/>
       <c r="B156" t="s">
         <v>10</v>
@@ -11848,7 +11884,7 @@
       </c>
       <c r="W156"/>
     </row>
-    <row r="157" spans="1:25" hidden="1">
+    <row r="157" spans="1:26" hidden="1">
       <c r="A157"/>
       <c r="B157" t="s">
         <v>10</v>
@@ -11894,7 +11930,7 @@
       </c>
       <c r="W157"/>
     </row>
-    <row r="158" spans="1:25" hidden="1">
+    <row r="158" spans="1:26" hidden="1">
       <c r="A158"/>
       <c r="B158" t="s">
         <v>10</v>
@@ -11937,7 +11973,7 @@
       </c>
       <c r="W158"/>
     </row>
-    <row r="159" spans="1:25">
+    <row r="159" spans="1:26" hidden="1">
       <c r="A159" s="3" t="s">
         <v>1291</v>
       </c>
@@ -11959,18 +11995,6 @@
       <c r="G159" t="s">
         <v>1290</v>
       </c>
-      <c r="H159" t="s">
-        <v>126</v>
-      </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
-      <c r="J159" t="s">
-        <v>7</v>
-      </c>
-      <c r="K159" t="s">
-        <v>125</v>
-      </c>
       <c r="L159" t="s">
         <v>134</v>
       </c>
@@ -11999,11 +12023,16 @@
         <v>2006</v>
       </c>
       <c r="V159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W159"/>
-    </row>
-    <row r="160" spans="1:25" hidden="1">
+        <v>279</v>
+      </c>
+      <c r="W159">
+        <v>2023</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" hidden="1">
       <c r="A160"/>
       <c r="B160" t="s">
         <v>10</v>
@@ -13590,7 +13619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:23" hidden="1">
       <c r="A195" t="s">
         <v>1223</v>
       </c>
@@ -16719,7 +16748,7 @@
       </c>
       <c r="W264"/>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:23" hidden="1">
       <c r="A265" s="3" t="s">
         <v>1079</v>
       </c>
@@ -25592,7 +25621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:23" hidden="1">
+    <row r="434" spans="1:23">
       <c r="A434" s="3" t="s">
         <v>647</v>
       </c>
@@ -25997,7 +26026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:23" hidden="1">
+    <row r="440" spans="1:23">
       <c r="A440" s="3" t="s">
         <v>630</v>
       </c>
@@ -26136,7 +26165,7 @@
       </c>
       <c r="W441"/>
     </row>
-    <row r="442" spans="1:23" hidden="1">
+    <row r="442" spans="1:23">
       <c r="A442" s="3" t="s">
         <v>622</v>
       </c>
@@ -26204,7 +26233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:23" hidden="1">
+    <row r="443" spans="1:23">
       <c r="A443" s="3" t="s">
         <v>621</v>
       </c>
@@ -26479,7 +26508,7 @@
       </c>
       <c r="W446"/>
     </row>
-    <row r="447" spans="1:23" hidden="1">
+    <row r="447" spans="1:23">
       <c r="A447" t="s">
         <v>609</v>
       </c>
@@ -26547,7 +26576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:23" hidden="1">
+    <row r="448" spans="1:23">
       <c r="A448" t="s">
         <v>606</v>
       </c>
@@ -26615,7 +26644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:23" hidden="1">
+    <row r="449" spans="1:23">
       <c r="A449" t="s">
         <v>604</v>
       </c>
@@ -27595,7 +27624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:23" hidden="1">
+    <row r="465" spans="1:23">
       <c r="A465" s="3" t="s">
         <v>554</v>
       </c>
@@ -27663,7 +27692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:23" hidden="1">
+    <row r="466" spans="1:23">
       <c r="A466" s="3" t="s">
         <v>553</v>
       </c>
@@ -28246,7 +28275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:23" hidden="1">
+    <row r="475" spans="1:23">
       <c r="A475" s="3" t="s">
         <v>522</v>
       </c>
@@ -28313,7 +28342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:23" hidden="1">
+    <row r="476" spans="1:23">
       <c r="A476" s="3" t="s">
         <v>518</v>
       </c>
@@ -28369,7 +28398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:23" hidden="1">
+    <row r="477" spans="1:23">
       <c r="A477" s="3" t="s">
         <v>516</v>
       </c>
@@ -34153,7 +34182,7 @@
         <v>125</v>
       </c>
       <c r="E563" s="17">
-        <f t="shared" ref="E563:E594" si="14">D563*C563</f>
+        <f t="shared" ref="E563:E568" si="14">D563*C563</f>
         <v>125</v>
       </c>
       <c r="F563" t="s">
@@ -34701,7 +34730,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="575" spans="1:22" hidden="1">
+    <row r="575" spans="1:22">
       <c r="A575" s="3" t="s">
         <v>217</v>
       </c>
@@ -34739,7 +34768,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="576" spans="1:22" hidden="1">
+    <row r="576" spans="1:22">
       <c r="A576" s="3" t="s">
         <v>215</v>
       </c>
@@ -34777,7 +34806,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="577" spans="1:22" hidden="1">
+    <row r="577" spans="1:22">
       <c r="A577" s="3" t="s">
         <v>213</v>
       </c>
@@ -34815,7 +34844,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="578" spans="1:22" hidden="1">
+    <row r="578" spans="1:22">
       <c r="A578" s="3" t="s">
         <v>211</v>
       </c>
@@ -34850,7 +34879,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="579" spans="1:22" hidden="1">
+    <row r="579" spans="1:22">
       <c r="A579" s="3" t="s">
         <v>208</v>
       </c>
@@ -34897,7 +34926,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="580" spans="1:22" hidden="1">
+    <row r="580" spans="1:22">
       <c r="A580" s="3" t="s">
         <v>205</v>
       </c>
@@ -34923,7 +34952,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="581" spans="1:22" hidden="1">
+    <row r="581" spans="1:22">
       <c r="A581" s="3" t="s">
         <v>202</v>
       </c>
@@ -34961,7 +34990,7 @@
         <v>8771707</v>
       </c>
     </row>
-    <row r="582" spans="1:22" hidden="1">
+    <row r="582" spans="1:22">
       <c r="A582" s="3" t="s">
         <v>200</v>
       </c>
@@ -34992,11 +35021,20 @@
       <c r="J582" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="K582" t="s">
+        <v>196</v>
+      </c>
       <c r="L582" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M582" s="5" t="s">
         <v>197</v>
+      </c>
+      <c r="N582" s="2">
+        <v>8699178</v>
+      </c>
+      <c r="S582" s="54" t="s">
+        <v>1582</v>
       </c>
     </row>
     <row r="583" spans="1:22" hidden="1">
@@ -35033,6 +35071,9 @@
       <c r="M583" t="s">
         <v>193</v>
       </c>
+      <c r="N583" s="2" t="s">
+        <v>1581</v>
+      </c>
     </row>
     <row r="584" spans="1:22" hidden="1">
       <c r="A584" s="16" t="s">
@@ -35388,7 +35429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:22">
+    <row r="592" spans="1:22" hidden="1">
       <c r="A592" s="3" t="s">
         <v>159</v>
       </c>
@@ -35426,7 +35467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:22">
+    <row r="593" spans="1:22" hidden="1">
       <c r="A593" s="3" t="s">
         <v>156</v>
       </c>
@@ -35464,7 +35505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:22">
+    <row r="594" spans="1:22" hidden="1">
       <c r="A594" s="3" t="s">
         <v>153</v>
       </c>
@@ -35502,7 +35543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:22">
+    <row r="595" spans="1:22" hidden="1">
       <c r="A595" s="3" t="s">
         <v>152</v>
       </c>
@@ -35540,7 +35581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:22">
+    <row r="596" spans="1:22" hidden="1">
       <c r="A596" s="3" t="s">
         <v>150</v>
       </c>
@@ -35578,7 +35619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:22">
+    <row r="597" spans="1:22" hidden="1">
       <c r="A597" s="3" t="s">
         <v>148</v>
       </c>
@@ -35616,7 +35657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:22">
+    <row r="598" spans="1:22" hidden="1">
       <c r="A598" s="3" t="s">
         <v>145</v>
       </c>
@@ -35651,7 +35692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:22">
+    <row r="599" spans="1:22" hidden="1">
       <c r="A599" s="3" t="s">
         <v>141</v>
       </c>
@@ -35689,7 +35730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:22">
+    <row r="600" spans="1:22" hidden="1">
       <c r="A600" s="3" t="s">
         <v>140</v>
       </c>
@@ -35727,7 +35768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:22">
+    <row r="601" spans="1:22" hidden="1">
       <c r="A601" s="3" t="s">
         <v>137</v>
       </c>
@@ -35765,7 +35806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:22">
+    <row r="602" spans="1:22" hidden="1">
       <c r="A602" s="3" t="s">
         <v>132</v>
       </c>
@@ -35800,7 +35841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:22">
+    <row r="603" spans="1:22" hidden="1">
       <c r="A603" s="3" t="s">
         <v>128</v>
       </c>
@@ -35873,7 +35914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:22">
+    <row r="605" spans="1:22" hidden="1">
       <c r="A605" s="3" t="s">
         <v>120</v>
       </c>
@@ -37009,7 +37050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:22" hidden="1">
+    <row r="628" spans="1:22">
       <c r="A628" s="3" t="s">
         <v>1547</v>
       </c>
@@ -37067,7 +37108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:22" hidden="1">
+    <row r="629" spans="1:22">
       <c r="A629" s="3" t="s">
         <v>1550</v>
       </c>
@@ -37260,6 +37301,123 @@
       </c>
       <c r="M633" t="s">
         <v>1569</v>
+      </c>
+    </row>
+    <row r="634" spans="1:22" hidden="1">
+      <c r="A634" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B634" t="s">
+        <v>10</v>
+      </c>
+      <c r="C634">
+        <v>1</v>
+      </c>
+      <c r="D634">
+        <v>30</v>
+      </c>
+      <c r="F634" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G634" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H634" t="s">
+        <v>126</v>
+      </c>
+      <c r="I634" t="s">
+        <v>7</v>
+      </c>
+      <c r="J634" t="s">
+        <v>7</v>
+      </c>
+      <c r="K634" t="s">
+        <v>130</v>
+      </c>
+      <c r="L634" t="s">
+        <v>1390</v>
+      </c>
+      <c r="M634" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="635" spans="1:22" hidden="1">
+      <c r="A635" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B635" t="s">
+        <v>10</v>
+      </c>
+      <c r="C635">
+        <v>1</v>
+      </c>
+      <c r="D635">
+        <v>30</v>
+      </c>
+      <c r="F635" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G635" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H635" t="s">
+        <v>126</v>
+      </c>
+      <c r="I635" t="s">
+        <v>7</v>
+      </c>
+      <c r="J635" t="s">
+        <v>7</v>
+      </c>
+      <c r="K635" t="s">
+        <v>130</v>
+      </c>
+      <c r="L635" t="s">
+        <v>1390</v>
+      </c>
+      <c r="M635" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="636" spans="1:22" hidden="1">
+      <c r="A636" s="53" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B636" t="s">
+        <v>10</v>
+      </c>
+      <c r="C636">
+        <v>1</v>
+      </c>
+      <c r="G636" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H636" t="s">
+        <v>126</v>
+      </c>
+      <c r="I636" t="s">
+        <v>7</v>
+      </c>
+      <c r="J636" t="s">
+        <v>7</v>
+      </c>
+      <c r="K636" t="s">
+        <v>130</v>
+      </c>
+      <c r="L636" t="s">
+        <v>45</v>
+      </c>
+      <c r="M636" t="s">
+        <v>1579</v>
+      </c>
+      <c r="N636" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S636" t="s">
+        <v>1580</v>
+      </c>
+      <c r="U636">
+        <v>2040</v>
       </c>
     </row>
   </sheetData>
